--- a/MidTerm/Mid_term_clacs.xlsx
+++ b/MidTerm/Mid_term_clacs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\H Drive\Course Work\CERG-Data Science\CSC_587_Advanced_Data_Mining\HW\MidTerm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgetty\Desktop\Repos\CSC_587\MidTerm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2523C534-0C8C-4FE1-B14F-1A8F39CEAF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EEE143-D3B0-415E-8E92-DCC73419A53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24390" yWindow="4275" windowWidth="21870" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5445" yWindow="2310" windowWidth="19560" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BinSmoothing Manhatten" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -243,27 +243,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,7 +361,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A379822A-4978-4777-92C8-F2FEE5D0C961}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A379822A-4978-4777-92C8-F2FEE5D0C961}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -696,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B908F91-0CB0-48CF-94A9-E74FE1F47F5F}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,19 +874,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
@@ -951,12 +948,12 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
@@ -1178,7 +1175,7 @@
       <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1186,13 +1183,13 @@
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="1">
         <v>19</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="1">
         <v>80</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="1">
         <v>99</v>
       </c>
       <c r="E16" s="1">
@@ -1209,13 +1206,13 @@
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="1">
         <v>55</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="1">
         <v>20</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="1">
         <v>75</v>
       </c>
       <c r="E17" s="1">
@@ -1232,13 +1229,13 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="8">
         <v>74</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="8">
         <v>100</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="8">
         <v>174</v>
       </c>
       <c r="E18" s="1">
@@ -1249,7 +1246,7 @@
         <f>SUM(F16:F17)</f>
         <v>0.7620085671669643</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <f>E18-F18</f>
         <v>0.22182476756673686</v>
       </c>
@@ -1270,7 +1267,7 @@
       <c r="F21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1314,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F25" si="1">(D23/D$18)*E23</f>
+        <f t="shared" ref="F23:F24" si="1">(D23/D$18)*E23</f>
         <v>0</v>
       </c>
     </row>
@@ -1361,7 +1358,7 @@
         <f>SUM(F22:F24)</f>
         <v>0.54490436830767786</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="7">
         <f>E25-F25</f>
         <v>0.43589399638675175</v>
       </c>
@@ -1391,15 +1388,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
@@ -1413,54 +1410,52 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>44</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>50</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>28</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>72</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>100</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>172</v>
       </c>
     </row>
